--- a/Calculs/DataBase_PH2_FileB_MidStrip_V1.xlsx
+++ b/Calculs/DataBase_PH2_FileB_MidStrip_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{183F20F1-8883-48E2-A6AE-32C242FA84CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A99A2F8-F73D-4159-939C-731F5EAFCB86}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{183F20F1-8883-48E2-A6AE-32C242FA84CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA6C47D-E897-4C33-9B8B-1F73D4CEC489}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="2160" yWindow="4530" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>fck</t>
   </si>
@@ -724,6 +724,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1041,11 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF14" sqref="AF14"/>
+      <selection pane="topRight" activeCell="A11" activeCellId="2" sqref="A27:XFD27 A19:XFD19 A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,8 +1230,8 @@
       <c r="AM2" s="2"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1296,11 +1300,11 @@
         <v>0</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" ref="X3:X20" si="0">U3*(1-W3)</f>
+        <f t="shared" ref="X3:X18" si="0">U3*(1-W3)</f>
         <v>25.783999999999999</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y20" si="1">U3*W3 + V3</f>
+        <f t="shared" ref="Y3:Y18" si="1">U3*W3 + V3</f>
         <v>7.8319999999999999</v>
       </c>
       <c r="Z3" s="4">
@@ -1308,15 +1312,15 @@
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB20" si="2">X3+Y3</f>
+        <f t="shared" ref="AB3:AB18" si="2">X3+Y3</f>
         <v>33.616</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1404,8 +1408,8 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1493,8 +1497,8 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1581,8 +1585,8 @@
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1670,8 +1674,8 @@
       <c r="AM7" s="2"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1758,8 +1762,8 @@
       <c r="AL8" s="2"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
+      <c r="A9" t="s">
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1847,8 +1851,8 @@
       <c r="AM9" s="2"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1936,11 +1940,11 @@
       <c r="AM10" s="2"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11">
         <v>25</v>
@@ -1964,16 +1968,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="M11">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1997,38 +2001,39 @@
         <v>1</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
+        <v>15.0016</v>
+      </c>
+      <c r="V11" s="2">
+        <v>4.5568</v>
       </c>
       <c r="W11" s="3">
         <v>0</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.0016</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5568</v>
       </c>
       <c r="Z11" s="4">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.558399999999999</v>
       </c>
       <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>25</v>
@@ -2061,7 +2066,7 @@
         <v>7.7000000000000007E-4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2085,39 +2090,39 @@
         <v>1</v>
       </c>
       <c r="U12" s="2">
-        <v>15.0016</v>
+        <v>38.675999999999995</v>
       </c>
       <c r="V12" s="2">
-        <v>4.5568</v>
+        <v>11.747999999999999</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="0"/>
-        <v>15.0016</v>
+        <v>38.675999999999995</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>4.5568</v>
+        <v>11.747999999999999</v>
       </c>
       <c r="Z12" s="4">
-        <v>25.6</v>
+        <v>66</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12">
         <f t="shared" si="2"/>
-        <v>19.558399999999999</v>
+        <v>50.423999999999992</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -2147,10 +2152,10 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>7.7000000000000007E-4</v>
+        <v>5.1400000000000003E-4</v>
       </c>
       <c r="M13">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2165,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2174,39 +2179,39 @@
         <v>1</v>
       </c>
       <c r="U13" s="2">
-        <v>38.675999999999995</v>
+        <v>37.503999999999998</v>
       </c>
       <c r="V13" s="2">
-        <v>11.747999999999999</v>
+        <v>11.391999999999999</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="0"/>
-        <v>38.675999999999995</v>
+        <v>37.503999999999998</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>11.747999999999999</v>
+        <v>11.391999999999999</v>
       </c>
       <c r="Z13" s="4">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13">
         <f t="shared" si="2"/>
-        <v>50.423999999999992</v>
+        <v>48.896000000000001</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -2236,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>5.1400000000000003E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2254,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>2.8800000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2263,39 +2268,38 @@
         <v>1</v>
       </c>
       <c r="U14" s="2">
-        <v>37.503999999999998</v>
+        <v>48.344999999999999</v>
       </c>
       <c r="V14" s="2">
-        <v>11.391999999999999</v>
+        <v>14.684999999999999</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="0"/>
-        <v>37.503999999999998</v>
+        <v>48.344999999999999</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>11.391999999999999</v>
+        <v>14.684999999999999</v>
       </c>
       <c r="Z14" s="4">
-        <v>64</v>
+        <v>82.5</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>48.896000000000001</v>
+        <v>63.03</v>
       </c>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>25</v>
@@ -2325,10 +2329,10 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>1.01E-3</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="M15">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2343,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2352,38 +2356,38 @@
         <v>1</v>
       </c>
       <c r="U15" s="2">
-        <v>48.344999999999999</v>
-      </c>
-      <c r="V15" s="2">
-        <v>14.684999999999999</v>
+        <v>30.75328</v>
+      </c>
+      <c r="V15">
+        <v>9.3414400000000004</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="0"/>
-        <v>48.344999999999999</v>
+        <v>30.75328</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>14.684999999999999</v>
+        <v>9.3414400000000004</v>
       </c>
       <c r="Z15" s="4">
-        <v>82.5</v>
+        <v>52.480000000000004</v>
       </c>
       <c r="AA15" s="4"/>
       <c r="AB15">
         <f t="shared" si="2"/>
-        <v>63.03</v>
+        <v>40.094720000000002</v>
       </c>
       <c r="AL15" s="2"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -2413,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>7.7000000000000007E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2431,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2.8800000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2440,38 +2444,38 @@
         <v>1</v>
       </c>
       <c r="U16" s="2">
-        <v>30.75328</v>
+        <v>36.742199999999997</v>
       </c>
       <c r="V16">
-        <v>9.3414400000000004</v>
+        <v>11.160600000000001</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="0"/>
-        <v>30.75328</v>
+        <v>36.742199999999997</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>9.3414400000000004</v>
+        <v>11.160600000000001</v>
       </c>
       <c r="Z16" s="4">
-        <v>52.480000000000004</v>
+        <v>62.7</v>
       </c>
       <c r="AA16" s="4"/>
       <c r="AB16">
         <f t="shared" si="2"/>
-        <v>40.094720000000002</v>
+        <v>47.902799999999999</v>
       </c>
       <c r="AL16" s="2"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -2498,13 +2502,13 @@
         <v>0.215</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
-        <v>1.01E-3</v>
+        <v>5.7750000000000011E-4</v>
       </c>
       <c r="M17">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2519,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2528,38 +2532,38 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>36.742199999999997</v>
+        <v>32.253439999999998</v>
       </c>
       <c r="V17">
-        <v>11.160600000000001</v>
+        <v>9.7971199999999996</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="0"/>
-        <v>36.742199999999997</v>
+        <v>32.253439999999998</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>11.160600000000001</v>
+        <v>9.7971199999999996</v>
       </c>
       <c r="Z17" s="4">
-        <v>62.7</v>
+        <v>55.04</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17">
         <f t="shared" si="2"/>
-        <v>47.902799999999999</v>
+        <v>42.050559999999997</v>
       </c>
       <c r="AL17" s="2"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
+      <c r="A18" t="s">
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -2586,10 +2590,10 @@
         <v>0.215</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>5.7750000000000011E-4</v>
+        <v>6.4250000000000006E-4</v>
       </c>
       <c r="M18">
         <v>0.04</v>
@@ -2607,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>9.6000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2616,38 +2620,38 @@
         <v>1</v>
       </c>
       <c r="U18" s="2">
-        <v>32.253439999999998</v>
+        <v>11.251199999999999</v>
       </c>
       <c r="V18">
-        <v>9.7971199999999996</v>
+        <v>3.4175999999999997</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="0"/>
-        <v>32.253439999999998</v>
+        <v>11.251199999999999</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>9.7971199999999996</v>
+        <v>3.4175999999999997</v>
       </c>
       <c r="Z18" s="4">
-        <v>55.04</v>
+        <v>19.2</v>
       </c>
       <c r="AA18" s="4"/>
       <c r="AB18">
         <f t="shared" si="2"/>
-        <v>42.050559999999997</v>
+        <v>14.668799999999999</v>
       </c>
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19">
         <v>25</v>
@@ -2658,7 +2662,7 @@
       <c r="E19">
         <v>500</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>170000</v>
       </c>
       <c r="G19">
@@ -2671,16 +2675,16 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.0060000000000002E-3</v>
       </c>
       <c r="M19">
-        <v>0.01</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2704,38 +2708,37 @@
         <v>1</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>32.230000000000004</v>
       </c>
       <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
+        <v>9.7900000000000009</v>
+      </c>
+      <c r="W19" s="5">
         <v>0</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="X19:X33" si="3">U19*(1-W19)</f>
+        <v>32.230000000000004</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="Y19:Y33" si="4">U19*W19 + V19</f>
+        <v>9.7900000000000009</v>
       </c>
       <c r="Z19" s="4">
-        <v>0</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="AA19" s="4"/>
       <c r="AB19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2"/>
+        <f t="shared" ref="AB19:AB33" si="5">X19+Y19</f>
+        <v>42.02</v>
+      </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -2746,7 +2749,7 @@
       <c r="E20">
         <v>500</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>170000</v>
       </c>
       <c r="G20">
@@ -2762,10 +2765,10 @@
         <v>0.215</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>6.4250000000000006E-4</v>
+        <v>5.1400000000000003E-4</v>
       </c>
       <c r="M20">
         <v>0.04</v>
@@ -2783,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2792,38 +2795,37 @@
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>11.251199999999999</v>
+        <v>37.503999999999998</v>
       </c>
       <c r="V20">
-        <v>3.4175999999999997</v>
-      </c>
-      <c r="W20" s="3">
+        <v>11.391999999999999</v>
+      </c>
+      <c r="W20" s="5">
         <v>0</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="0"/>
-        <v>11.251199999999999</v>
+        <f t="shared" si="3"/>
+        <v>37.503999999999998</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4175999999999997</v>
+        <f t="shared" si="4"/>
+        <v>11.391999999999999</v>
       </c>
       <c r="Z20" s="4">
-        <v>19.2</v>
+        <v>64</v>
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20">
-        <f t="shared" si="2"/>
-        <v>14.668799999999999</v>
-      </c>
-      <c r="AL20" s="2"/>
+        <f t="shared" si="5"/>
+        <v>48.896000000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -2879,38 +2881,38 @@
       <c r="T21">
         <v>1</v>
       </c>
-      <c r="U21" s="2">
-        <v>32.230000000000004</v>
+      <c r="U21">
+        <v>46.411200000000001</v>
       </c>
       <c r="V21">
-        <v>9.7900000000000009</v>
+        <v>14.0976</v>
       </c>
       <c r="W21" s="5">
         <v>0</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21:X45" si="3">U21*(1-W21)</f>
-        <v>32.230000000000004</v>
+        <f t="shared" si="3"/>
+        <v>46.411200000000001</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" ref="Y21:Y45" si="4">U21*W21 + V21</f>
-        <v>9.7900000000000009</v>
+        <f t="shared" si="4"/>
+        <v>14.0976</v>
       </c>
       <c r="Z21" s="4">
-        <v>55.000000000000007</v>
+        <v>79.2</v>
       </c>
       <c r="AA21" s="4"/>
       <c r="AB21">
-        <f t="shared" ref="AB21:AB45" si="5">X21+Y21</f>
-        <v>42.02</v>
+        <f t="shared" si="5"/>
+        <v>60.508800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -2940,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>5.1400000000000003E-4</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="M22">
         <v>0.04</v>
@@ -2966,38 +2968,38 @@
       <c r="T22">
         <v>1</v>
       </c>
-      <c r="U22" s="2">
-        <v>37.503999999999998</v>
+      <c r="U22">
+        <v>33.753599999999999</v>
       </c>
       <c r="V22">
-        <v>11.391999999999999</v>
+        <v>10.252800000000001</v>
       </c>
       <c r="W22" s="5">
         <v>0</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="3"/>
-        <v>37.503999999999998</v>
+        <v>33.753599999999999</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="4"/>
-        <v>11.391999999999999</v>
+        <v>10.252800000000001</v>
       </c>
       <c r="Z22" s="4">
-        <v>64</v>
+        <v>57.6</v>
       </c>
       <c r="AA22" s="4"/>
       <c r="AB22">
         <f t="shared" si="5"/>
-        <v>48.896000000000001</v>
+        <v>44.006399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
+      <c r="A23" t="s">
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -3027,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>1.0060000000000002E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="M23">
         <v>5.5E-2</v>
@@ -3054,37 +3056,37 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>46.411200000000001</v>
+        <v>34.808399999999999</v>
       </c>
       <c r="V23">
-        <v>14.0976</v>
+        <v>10.5732</v>
       </c>
       <c r="W23" s="5">
         <v>0</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="3"/>
-        <v>46.411200000000001</v>
+        <v>34.808399999999999</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="4"/>
-        <v>14.0976</v>
+        <v>10.5732</v>
       </c>
       <c r="Z23" s="4">
-        <v>79.2</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="AA23" s="4"/>
       <c r="AB23">
         <f t="shared" si="5"/>
-        <v>60.508800000000001</v>
+        <v>45.381599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
+      <c r="A24" t="s">
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -3132,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>2.8800000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3141,37 +3143,37 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>33.753599999999999</v>
+        <v>18.751999999999999</v>
       </c>
       <c r="V24">
-        <v>10.252800000000001</v>
+        <v>5.6959999999999997</v>
       </c>
       <c r="W24" s="5">
         <v>0</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="3"/>
-        <v>33.753599999999999</v>
+        <v>18.751999999999999</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="4"/>
-        <v>10.252800000000001</v>
+        <v>5.6959999999999997</v>
       </c>
       <c r="Z24" s="4">
-        <v>57.6</v>
+        <v>32</v>
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24">
         <f t="shared" si="5"/>
-        <v>44.006399999999999</v>
+        <v>24.448</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
+      <c r="A25" t="s">
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -3198,13 +3200,13 @@
         <v>0.215</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L25">
-        <v>1.01E-3</v>
+        <v>4.4800000000000005E-4</v>
       </c>
       <c r="M25">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3228,37 +3230,37 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>34.808399999999999</v>
+        <v>10.50112</v>
       </c>
       <c r="V25">
-        <v>10.5732</v>
+        <v>3.1897600000000002</v>
       </c>
       <c r="W25" s="5">
         <v>0</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="3"/>
-        <v>34.808399999999999</v>
+        <v>10.50112</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="4"/>
-        <v>10.5732</v>
+        <v>3.1897600000000002</v>
       </c>
       <c r="Z25" s="4">
-        <v>59.400000000000006</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="AA25" s="4"/>
       <c r="AB25">
         <f t="shared" si="5"/>
-        <v>45.381599999999999</v>
+        <v>13.69088</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
+      <c r="A26" t="s">
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3285,13 +3287,13 @@
         <v>0.215</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>7.7000000000000007E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3306,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3315,37 +3317,37 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>18.751999999999999</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="V26">
-        <v>5.6959999999999997</v>
+        <v>0.1958</v>
       </c>
       <c r="W26" s="5">
         <v>0</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="3"/>
-        <v>18.751999999999999</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="4"/>
-        <v>5.6959999999999997</v>
+        <v>0.1958</v>
       </c>
       <c r="Z26" s="4">
-        <v>32</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26">
         <f t="shared" si="5"/>
-        <v>24.448</v>
+        <v>0.84040000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -3369,16 +3371,16 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2.6680000000000002E-3</v>
       </c>
       <c r="M27">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3402,29 +3404,29 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>37.503999999999998</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>11.391999999999999</v>
       </c>
       <c r="W27" s="5">
         <v>0</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>37.503999999999998</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.391999999999999</v>
       </c>
       <c r="Z27" s="4">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>48.896000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
@@ -3432,7 +3434,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -3459,13 +3461,13 @@
         <v>0.215</v>
       </c>
       <c r="K28">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>4.4800000000000005E-4</v>
+        <v>2.0120000000000003E-3</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3489,37 +3491,37 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>10.50112</v>
+        <v>32.230000000000004</v>
       </c>
       <c r="V28">
-        <v>3.1897600000000002</v>
+        <v>9.7900000000000009</v>
       </c>
       <c r="W28" s="5">
         <v>0</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="3"/>
-        <v>10.50112</v>
+        <v>32.230000000000004</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="4"/>
-        <v>3.1897600000000002</v>
+        <v>9.7900000000000009</v>
       </c>
       <c r="Z28" s="4">
-        <v>17.920000000000002</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28">
         <f t="shared" si="5"/>
-        <v>13.69088</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0</v>
+      <c r="A29" t="s">
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -3549,10 +3551,10 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>1E-4</v>
+        <v>2.052E-3</v>
       </c>
       <c r="M29">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3567,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3576,37 +3578,37 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>0.64460000000000006</v>
+        <v>113.26208</v>
       </c>
       <c r="V29">
-        <v>0.1958</v>
+        <v>34.403839999999995</v>
       </c>
       <c r="W29" s="5">
         <v>0</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="3"/>
-        <v>0.64460000000000006</v>
+        <v>113.26208</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="4"/>
-        <v>0.1958</v>
+        <v>34.403839999999995</v>
       </c>
       <c r="Z29" s="4">
-        <v>1.1000000000000001</v>
+        <v>193.28</v>
       </c>
       <c r="AA29" s="4"/>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>0.84040000000000004</v>
+        <v>147.66592</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
+      <c r="A30" t="s">
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -3636,10 +3638,10 @@
         <v>4</v>
       </c>
       <c r="L30">
-        <v>2.6680000000000002E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3654,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3663,37 +3665,37 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>37.503999999999998</v>
+        <v>38.675999999999995</v>
       </c>
       <c r="V30">
-        <v>11.391999999999999</v>
+        <v>11.747999999999999</v>
       </c>
       <c r="W30" s="5">
         <v>0</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="3"/>
-        <v>37.503999999999998</v>
+        <v>38.675999999999995</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="4"/>
-        <v>11.391999999999999</v>
+        <v>11.747999999999999</v>
       </c>
       <c r="Z30" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30">
         <f t="shared" si="5"/>
-        <v>48.896000000000001</v>
+        <v>50.423999999999992</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
+      <c r="A31" t="s">
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -3723,10 +3725,10 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <v>2.0120000000000003E-3</v>
+        <v>2.052E-3</v>
       </c>
       <c r="M31">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3750,37 +3752,37 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>32.230000000000004</v>
+        <v>48.755200000000002</v>
       </c>
       <c r="V31">
-        <v>9.7900000000000009</v>
+        <v>14.8096</v>
       </c>
       <c r="W31" s="5">
         <v>0</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="3"/>
-        <v>32.230000000000004</v>
+        <v>48.755200000000002</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="4"/>
-        <v>9.7900000000000009</v>
+        <v>14.8096</v>
       </c>
       <c r="Z31" s="4">
-        <v>55.000000000000007</v>
+        <v>83.2</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31">
         <f t="shared" si="5"/>
-        <v>42.02</v>
+        <v>63.564800000000005</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
+      <c r="A32" t="s">
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -3810,10 +3812,10 @@
         <v>4</v>
       </c>
       <c r="L32">
-        <v>2.052E-3</v>
+        <v>6.7199999999999996E-4</v>
       </c>
       <c r="M32">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3837,37 +3839,37 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>113.26208</v>
+        <v>19.982599999999998</v>
       </c>
       <c r="V32">
-        <v>34.403839999999995</v>
+        <v>6.0697999999999999</v>
       </c>
       <c r="W32" s="5">
         <v>0</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="3"/>
-        <v>113.26208</v>
+        <v>19.982599999999998</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="4"/>
-        <v>34.403839999999995</v>
+        <v>6.0697999999999999</v>
       </c>
       <c r="Z32" s="4">
-        <v>193.28</v>
+        <v>34.1</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32">
         <f t="shared" si="5"/>
-        <v>147.66592</v>
+        <v>26.052399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
+      <c r="A33" t="s">
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>25</v>
@@ -3897,10 +3899,10 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>1E-4</v>
+        <v>2.052E-3</v>
       </c>
       <c r="M33">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3915,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="R33">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3924,291 +3926,51 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>38.675999999999995</v>
+        <v>33.753599999999999</v>
       </c>
       <c r="V33">
-        <v>11.747999999999999</v>
+        <v>10.252800000000001</v>
       </c>
       <c r="W33" s="5">
         <v>0</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="3"/>
-        <v>38.675999999999995</v>
+        <v>33.753599999999999</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="4"/>
-        <v>11.747999999999999</v>
+        <v>10.252800000000001</v>
       </c>
       <c r="Z33" s="4">
-        <v>66</v>
+        <v>57.6</v>
       </c>
       <c r="AA33" s="4"/>
       <c r="AB33">
         <f t="shared" si="5"/>
-        <v>50.423999999999992</v>
+        <v>44.006399999999999</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34">
-        <v>500</v>
-      </c>
-      <c r="F34">
-        <v>170000</v>
-      </c>
-      <c r="G34">
-        <v>1300</v>
-      </c>
-      <c r="H34">
-        <v>1445</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0.215</v>
-      </c>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34">
-        <v>2.052E-3</v>
-      </c>
-      <c r="M34">
-        <v>0.04</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>48.755200000000002</v>
-      </c>
-      <c r="V34">
-        <v>14.8096</v>
-      </c>
-      <c r="W34" s="5">
-        <v>0</v>
-      </c>
-      <c r="X34" s="2">
-        <f t="shared" si="3"/>
-        <v>48.755200000000002</v>
-      </c>
-      <c r="Y34" s="2">
-        <f t="shared" si="4"/>
-        <v>14.8096</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>83.2</v>
-      </c>
+      <c r="W34" s="5"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34">
-        <f t="shared" si="5"/>
-        <v>63.564800000000005</v>
-      </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>500</v>
-      </c>
-      <c r="F35">
-        <v>170000</v>
-      </c>
-      <c r="G35">
-        <v>1300</v>
-      </c>
-      <c r="H35">
-        <v>1445</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0.215</v>
-      </c>
-      <c r="K35">
-        <v>4</v>
-      </c>
-      <c r="L35">
-        <v>6.7199999999999996E-4</v>
-      </c>
-      <c r="M35">
-        <v>5.5E-2</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>19.982599999999998</v>
-      </c>
-      <c r="V35">
-        <v>6.0697999999999999</v>
-      </c>
-      <c r="W35" s="5">
-        <v>0</v>
-      </c>
-      <c r="X35" s="2">
-        <f t="shared" si="3"/>
-        <v>19.982599999999998</v>
-      </c>
-      <c r="Y35" s="2">
-        <f t="shared" si="4"/>
-        <v>6.0697999999999999</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>34.1</v>
-      </c>
+      <c r="W35" s="5"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-      <c r="AB35">
-        <f t="shared" si="5"/>
-        <v>26.052399999999999</v>
-      </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36">
-        <v>500</v>
-      </c>
-      <c r="F36">
-        <v>170000</v>
-      </c>
-      <c r="G36">
-        <v>1300</v>
-      </c>
-      <c r="H36">
-        <v>1445</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0.215</v>
-      </c>
-      <c r="K36">
-        <v>4</v>
-      </c>
-      <c r="L36">
-        <v>2.052E-3</v>
-      </c>
-      <c r="M36">
-        <v>0.04</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>33.753599999999999</v>
-      </c>
-      <c r="V36">
-        <v>10.252800000000001</v>
-      </c>
-      <c r="W36" s="5">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2">
-        <f t="shared" si="3"/>
-        <v>33.753599999999999</v>
-      </c>
-      <c r="Y36" s="2">
-        <f t="shared" si="4"/>
-        <v>10.252800000000001</v>
-      </c>
-      <c r="Z36" s="4">
-        <v>57.6</v>
-      </c>
+      <c r="W36" s="5"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-      <c r="AB36">
-        <f t="shared" si="5"/>
-        <v>44.006399999999999</v>
-      </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="W37" s="5"/>
@@ -4252,27 +4014,6 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W43" s="5"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W44" s="5"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W45" s="5"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
